--- a/UpdateDependencies_Log_2.xlsx
+++ b/UpdateDependencies_Log_2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\randomly-read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD4182B-2814-44D8-9AA5-9408016428C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA10587-BC38-424E-AF07-40A9B33E7C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2D33378B-D474-4382-BEAC-7B33D8B239CE}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{2D33378B-D474-4382-BEAC-7B33D8B239CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug Fix Round 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug Fix Round 2_npm audit fix" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="132">
   <si>
     <t>    "@apollo/client": "^3.3.14",</t>
   </si>
@@ -351,16 +352,104 @@
   </si>
   <si>
     <t>moment-timezone@0.5.48</t>
+  </si>
+  <si>
+    <t>@emotion/react@11.14.0</t>
+  </si>
+  <si>
+    <t>@emotion/styled@11.14.1</t>
+  </si>
+  <si>
+    <t>@fortawesome/fontawesome-svg-core@1.2.36</t>
+  </si>
+  <si>
+    <t>@fortawesome/free-regular-svg-icons@5.15.4</t>
+  </si>
+  <si>
+    <t>@fortawesome/free-solid-svg-icons@5.15.4</t>
+  </si>
+  <si>
+    <t>@fortawesome/react-fontawesome@0.1.19</t>
+  </si>
+  <si>
+    <t>draft-js@0.11.7</t>
+  </si>
+  <si>
+    <t>draft-js-import-html@1.4.1</t>
+  </si>
+  <si>
+    <t>history@5.3.0</t>
+  </si>
+  <si>
+    <t>jwt-decode@2.2.0</t>
+  </si>
+  <si>
+    <t>lodash.isequal@4.5.0</t>
+  </si>
+  <si>
+    <t>medium-draft@0.5.18</t>
+  </si>
+  <si>
+    <t>pretty-ms@5.1.0</t>
+  </si>
+  <si>
+    <t>What is "Flow"</t>
+  </si>
+  <si>
+    <t>rc-slider@8.7.1</t>
+  </si>
+  <si>
+    <t>draft-convert@2.1.13</t>
+  </si>
+  <si>
+    <t>react-awesome-button@6.5.1</t>
+  </si>
+  <si>
+    <t>react-form@4.0.1</t>
+  </si>
+  <si>
+    <t>react-markdown@4.3.1</t>
+  </si>
+  <si>
+    <t>react-player@2.16.1</t>
+  </si>
+  <si>
+    <t>react-render-html@0.6.0</t>
+  </si>
+  <si>
+    <t>recharts@1.8.6</t>
+  </si>
+  <si>
+    <t>remark-breaks@1.0.5</t>
+  </si>
+  <si>
+    <t>rxjs@7.8.2</t>
+  </si>
+  <si>
+    <t>serve@13.0.4</t>
+  </si>
+  <si>
+    <t>styled-components@4.1.3</t>
+  </si>
+  <si>
+    <t>date-fns@2.30.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -373,8 +462,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +489,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -406,11 +508,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,9 +853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C433FE-D5E6-4CA8-BDF4-87BBEE6F888B}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1220,4 +1326,695 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA94EA1-BDE6-4656-B438-1CAFC90A15E2}">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="49.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E28" si="0">IFERROR("npm install "&amp;C3,"")</f>
+        <v xml:space="preserve">npm install </v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install @emotion/react@11.14.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install @emotion/styled@11.14.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install @fortawesome/fontawesome-svg-core@1.2.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install @fortawesome/free-regular-svg-icons@5.15.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install @fortawesome/free-solid-svg-icons@5.15.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install @fortawesome/react-fontawesome@0.1.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install draft-convert@2.1.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install draft-js@0.11.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install draft-js-import-html@1.4.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">npm install </v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install history@5.3.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IFERROR("npm install "&amp;C29,"")</f>
+        <v>npm install jwt-decode@2.2.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>